--- a/src/private/templates/suppliers_products_info.xlsx
+++ b/src/private/templates/suppliers_products_info.xlsx
@@ -29,9 +29,6 @@
     <t>Supplier name</t>
   </si>
   <si>
-    <t>SAP number</t>
-  </si>
-  <si>
     <t>Email address</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Prequalification status</t>
+  </si>
+  <si>
+    <t>Vendor number</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -390,31 +390,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
